--- a/biology/Botanique/Parc_de_l'amitié/Parc_de_l'amitié.xlsx
+++ b/biology/Botanique/Parc_de_l'amitié/Parc_de_l'amitié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_l%27amiti%C3%A9</t>
+          <t>Parc_de_l'amitié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de l'amitié est un jardin public situé avenue Paul-Doumer à Rueil-Malmaison dans les Hauts-de-Seine en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_l%27amiti%C3%A9</t>
+          <t>Parc_de_l'amitié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier aménagement du parc de l’amitié date de 1977. Sur 1,5 hectare, on peut admirer des arbres et arbustes harmonieusement disposés. Une roseraie regroupant cinquante variétés de roses a été inaugurée en 1988. Elle mérite d’être vue pour ses fleurs et son kiosque central. Le théâtre de verdure a été également réalisé en 1988. Constitué de gradins en gazonnés disposés en arcs de cercle, il peut accueillir mille spectateurs pour les concerts de la belle saison[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier aménagement du parc de l’amitié date de 1977. Sur 1,5 hectare, on peut admirer des arbres et arbustes harmonieusement disposés. Une roseraie regroupant cinquante variétés de roses a été inaugurée en 1988. Elle mérite d’être vue pour ses fleurs et son kiosque central. Le théâtre de verdure a été également réalisé en 1988. Constitué de gradins en gazonnés disposés en arcs de cercle, il peut accueillir mille spectateurs pour les concerts de la belle saison.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_l%27amiti%C3%A9</t>
+          <t>Parc_de_l'amitié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de l’amitié s’articule autour d’un jardin japonais de 2 500 m2, pour les promeneurs enclins à la méditation. Sur le miroir tranquille des eaux se reflète le pont de bois : les houppes fleuries de plantes vivaces se dressent entre les roches plates, et une cascade bruit doucement. Ce parc s’agrémente de nombreux autres petits jardins thématiques : jardin secret, jardin des senteurs, roseraie, jardin Renaissance. Les jumelages avec des villes étrangères ont été prétexte à la plantation symbolique d’arbres originaires de chaque pays. En avril, l’exposition de tulipes et de narcisses illumine ce parc très prisé des riverains[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de l’amitié s’articule autour d’un jardin japonais de 2 500 m2, pour les promeneurs enclins à la méditation. Sur le miroir tranquille des eaux se reflète le pont de bois : les houppes fleuries de plantes vivaces se dressent entre les roches plates, et une cascade bruit doucement. Ce parc s’agrémente de nombreux autres petits jardins thématiques : jardin secret, jardin des senteurs, roseraie, jardin Renaissance. Les jumelages avec des villes étrangères ont été prétexte à la plantation symbolique d’arbres originaires de chaque pays. En avril, l’exposition de tulipes et de narcisses illumine ce parc très prisé des riverains.
 </t>
         </is>
       </c>
